--- a/rank.xlsx
+++ b/rank.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Study\Documents\GitHub\EICI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786F4B69-FA09-4E54-ACDB-737E19D9B1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD37FB7A-E5AC-46D9-B0F0-DC3CEC97C380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11130" yWindow="3345" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25260" yWindow="1500" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rank" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">rank!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">rank!$A$1:$J$1</definedName>
     <definedName name="Slicer_ppm_pass">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="18" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -3422,8 +3422,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="ppm_pass">
@@ -3446,7 +3446,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -8702,7 +8702,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F917444-8031-4A52-84E3-126ABDB8D4B9}" name="PivotTable1" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Rank">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F917444-8031-4A52-84E3-126ABDB8D4B9}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Rank">
   <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -9114,8 +9114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J469"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P453" sqref="P453"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="M138" sqref="M138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24123,11 +24123,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I469">
-      <sortCondition descending="1" ref="I1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:J1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -24137,7 +24133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3084AD-E4CA-4E21-9037-4A8A022ADF32}">
   <dimension ref="A3:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
